--- a/Data/Western_Snowy_Plover_Window_Survey_dataset.xlsx
+++ b/Data/Western_Snowy_Plover_Window_Survey_dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jacob_cochran_fws_gov/Documents/Desktop/R Markdown - Quarto Workshops/2025 Virtual Course/Quarto_Exercise-2025_Data_Management_Workshop/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jason_ross_fws_gov/Documents/Documents/GitHub/Quarto_Exercise-2025_Data_Management_Workshop/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="11_D988C6ACEA9225991F964136A7A82AC7A8F6DA74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{834DF642-81F8-4316-83FA-1A53F331368F}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="11_D988C6ACEA9225991F964136A7A82AC7A8F6DA74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0870C99C-CE5F-4CD4-9232-06AFD79E07FD}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="12960" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observation Data_0" sheetId="2" r:id="rId1"/>
@@ -1677,25 +1677,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.47265625" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.68359375" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -1760,7 +1759,7 @@
         <v>-124.06047725568401</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>424</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>-124.07804882188201</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>424</v>
       </c>
@@ -1826,7 +1825,7 @@
         <v>-124.08259582902799</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>424</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>-124.124318158489</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>424</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>-124.125059260821</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1925,7 +1924,7 @@
         <v>-124.061751776261</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1958,7 +1957,7 @@
         <v>-124.069624662384</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>-124.061452056091</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>-124.059563751685</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>-124.08021406345</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>-124.12832379475699</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>424</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>-124.1313583676</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>424</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>-124.129962464111</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>424</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>-124.1313583676</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>-124.344705275519</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2255,7 +2254,7 @@
         <v>-124.324903605872</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>-124.324087042226</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>-124.442904730173</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>-124.442513686098</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2387,7 +2386,7 @@
         <v>-124.44517005041099</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>424</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>-124.11331446049699</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>424</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>-124.114600467636</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>424</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>-124.355847107801</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>424</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>-124.35431121405701</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>424</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>-124.354731785903</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>-124.110940057512</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>-124.113764562995</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>-124.114278965851</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>-124.35623220430899</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2731,9 +2730,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2785,7 +2784,7 @@
         <v>44.746283698680202</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>44.652628811044799</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2831,7 +2830,7 @@
         <v>44.424496639712999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>44.437084280937498</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>42.005093163773502</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>41.998466626617798</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2923,7 +2922,7 @@
         <v>44.400479492926301</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2946,7 +2945,7 @@
         <v>44.420414923080202</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>45.703507775190403</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>45.668525849692401</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>43.790044895542003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3038,7 +3037,7 @@
         <v>43.672720325273303</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3061,7 +3060,7 @@
         <v>42.461773519151997</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>42.4231421689882</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>44.436483557864499</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>44.424961357090901</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>44.452539996454703</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>44.47804</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>44.452640453478502</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>44.426049905304403</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>44.621709753598999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>44.625478587275801</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>46.722872280625197</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>46.706706512243002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3337,7 +3336,7 @@
         <v>46.849187616400997</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3360,7 +3359,7 @@
         <v>46.737381596195398</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>46.962825917194799</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>47.070339628980001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>47.070376414277298</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>47.139650291148698</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>47.1223990197281</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>47.139988043207502</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>46.945512664039001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>46.940318976574602</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>44.920036541722503</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>44.923847750348699</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>43.185445866953302</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>43.127067340500801</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3665,7 +3664,7 @@
         <v>45.268939733837698</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>45.287624807543096</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>43.893166577385898</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>44.015011653121398</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>45.192489090852099</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>45.161599290678602</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>46.228550830989803</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>46.237270266310396</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3855,7 +3854,7 @@
         <v>46.27111</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3878,7 +3877,7 @@
         <v>46.296759999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3907,7 +3906,7 @@
         <v>46.30292</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>46.548409999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3965,7 +3964,7 @@
         <v>46.548409999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>46.662190000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4017,7 +4016,7 @@
         <v>46.012303934484997</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>46.023667131546603</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4063,7 +4062,7 @@
         <v>42.988783938248297</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4086,7 +4085,7 @@
         <v>42.894779999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>43.0726623894083</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>42.991270145476001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>43.412842286147701</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>43.358952405587203</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>43.576115693071998</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>43.555147141559097</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>43.6320663862857</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4270,7 +4269,7 @@
         <v>43.577572230854301</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>43.806248332874397</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>43.790289767927497</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4339,7 +4338,7 @@
         <v>43.8689014508996</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>43.808626890425998</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>43.924149093498997</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4408,7 +4407,7 @@
         <v>43.870535004871201</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4431,7 +4430,7 @@
         <v>44.088894938977198</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4454,7 +4453,7 @@
         <v>44.052713474780397</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>45.5057841</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4500,7 +4499,7 @@
         <v>45.530504800000003</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>44.612520098828803</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>44.598199772947503</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>42.275698142188901</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4592,7 +4591,7 @@
         <v>42.271664597405596</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4615,7 +4614,7 @@
         <v>45.369753550225603</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>45.428818912750103</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4661,7 +4660,7 @@
         <v>45.528397535397502</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>45.565469980874099</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4707,7 +4706,7 @@
         <v>46.113855582881499</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>46.1497784413137</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>42.561232500985597</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>42.536371333628203</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4799,7 +4798,7 @@
         <v>42.871349484528999</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>42.854463323981797</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4845,7 +4844,7 @@
         <v>44.057534133786802</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>44.018805982570001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>42.791427929488897</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>42.813695513709803</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4937,7 +4936,7 @@
         <v>42.824415598925498</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>42.813543384211798</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4983,7 +4982,7 @@
         <v>44.597141656258501</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>44.612760404593402</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>99</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>44.620675014887397</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>100</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>44.626081399382201</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>101</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>44.4006690005331</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>102</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>44.4198204416181</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>103</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>44.423557625675201</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>104</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>44.483085075744398</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>105</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>42.560674170748598</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>106</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>42.5364919842212</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>107</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>45.201974459146697</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>108</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>45.161236089665401</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>109</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>42.869024863669097</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>110</v>
       </c>
@@ -5282,7 +5281,7 @@
         <v>42.851660299977503</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>111</v>
       </c>
@@ -5305,7 +5304,7 @@
         <v>43.210875055151497</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>112</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>43.125684601347203</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>113</v>
       </c>
@@ -5351,7 +5350,7 @@
         <v>45.531289676437702</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>114</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>45.5656848021926</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>115</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>44.658294120119997</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>116</v>
       </c>
@@ -5420,7 +5419,7 @@
         <v>44.673872092350202</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>117</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>41.999269581707601</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>118</v>
       </c>
@@ -5466,7 +5465,7 @@
         <v>42.004999644039103</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>119</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>42.301015774601701</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>120</v>
       </c>
@@ -5512,7 +5511,7 @@
         <v>42.287029961477799</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>121</v>
       </c>
@@ -5535,7 +5534,7 @@
         <v>42.461599833126598</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>122</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>42.422917579963197</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>123</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>46.235981258283203</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>124</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>46.229201757936302</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>125</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>45.034729292883597</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>126</v>
       </c>
@@ -5650,7 +5649,7 @@
         <v>45.039607994372503</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>127</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>44.919619910038897</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>128</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>44.924675722654001</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>131</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>46.746428664774797</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>132</v>
       </c>
@@ -5742,7 +5741,7 @@
         <v>46.793963257569501</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>133</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>46.7239100385802</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>134</v>
       </c>
@@ -5788,7 +5787,7 @@
         <v>46.705886454818902</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>135</v>
       </c>
@@ -5811,7 +5810,7 @@
         <v>46.949323893341997</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>136</v>
       </c>
@@ -5834,7 +5833,7 @@
         <v>47.0703190822151</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>137</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>47.070269620757301</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>138</v>
       </c>
@@ -5880,7 +5879,7 @@
         <v>47.121056326509098</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>139</v>
       </c>
@@ -5903,7 +5902,7 @@
         <v>47.121304546928599</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>140</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>47.139862213588401</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>141</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>46.945399696498697</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>142</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>46.940997475119403</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>143</v>
       </c>
@@ -5995,7 +5994,7 @@
         <v>43.887672811539403</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>144</v>
       </c>
@@ -6018,7 +6017,7 @@
         <v>44.015505545641197</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>145</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>46.015113602977202</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>146</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>46.030820386381201</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>147</v>
       </c>
@@ -6087,7 +6086,7 @@
         <v>45.505717446212401</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>148</v>
       </c>
@@ -6110,7 +6109,7 @@
         <v>45.52761843671</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>149</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>42.827059237719503</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>150</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>42.796978041846799</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>151</v>
       </c>
@@ -6179,7 +6178,7 @@
         <v>46.148940000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>152</v>
       </c>
@@ -6202,7 +6201,7 @@
         <v>46.113597009072599</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>153</v>
       </c>
@@ -6225,7 +6224,7 @@
         <v>45.267330000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>154</v>
       </c>
@@ -6248,7 +6247,7 @@
         <v>45.275184000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>155</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>45.686861999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>156</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>45.657623000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>157</v>
       </c>
@@ -6317,7 +6316,7 @@
         <v>45.368820999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>158</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>45.428162999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>161</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>46.548360000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>162</v>
       </c>
@@ -6386,7 +6385,7 @@
         <v>46.644930000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>163</v>
       </c>
@@ -6409,7 +6408,7 @@
         <v>46.270697874028897</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>164</v>
       </c>
@@ -6432,7 +6431,7 @@
         <v>46.296869999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>165</v>
       </c>
@@ -6455,7 +6454,7 @@
         <v>46.548360000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>166</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>46.302500000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>167</v>
       </c>
@@ -6501,7 +6500,7 @@
         <v>45.281725633697597</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>168</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>45.287159338570703</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>169</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>44.051109346742699</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>170</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>44.018586893399899</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>171</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>43.4117686389718</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>172</v>
       </c>
@@ -6616,7 +6615,7 @@
         <v>43.357080314873201</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>173</v>
       </c>
@@ -6639,7 +6638,7 @@
         <v>43.078991717235503</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>174</v>
       </c>
@@ -6662,7 +6661,7 @@
         <v>42.987718723990099</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>175</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>42.985425787687703</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>176</v>
       </c>
@@ -6708,7 +6707,7 @@
         <v>42.9026562309745</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>177</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>44.104890588505803</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>178</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>44.051791199009003</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>179</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>43.791056618631799</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>180</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>43.748527412098099</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>181</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>43.881593700912497</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>182</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>43.860108852297699</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>183</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>43.860184559931703</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>184</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>43.816591375265297</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>185</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>43.816452360830397</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>186</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>43.790668108073497</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>187</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>43.6561337504574</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>188</v>
       </c>
@@ -6984,7 +6983,7 @@
         <v>43.549108079019298</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>189</v>
       </c>
@@ -7007,7 +7006,7 @@
         <v>43.664442834905202</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>190</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>43.3628999455197</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>191</v>
       </c>
@@ -7053,7 +7052,7 @@
         <v>34.056795690033702</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>192</v>
       </c>
@@ -7076,7 +7075,7 @@
         <v>34.057464187188501</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>193</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>46.271541167202898</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>194</v>
       </c>
@@ -7134,7 +7133,7 @@
         <v>46.296730076082603</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>195</v>
       </c>
@@ -7157,7 +7156,7 @@
         <v>44.9258324314047</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>196</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>44.919713258124098</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>197</v>
       </c>
@@ -7203,7 +7202,7 @@
         <v>45.375441745823899</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>198</v>
       </c>
@@ -7226,7 +7225,7 @@
         <v>45.433783742499401</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>199</v>
       </c>
@@ -7249,7 +7248,7 @@
         <v>44.452666053898596</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>200</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>44.424285546364601</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>201</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>44.400478568454901</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>202</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>44.419718651356902</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>203</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>45.703531689568401</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>204</v>
       </c>
@@ -7364,7 +7363,7 @@
         <v>45.658283464353097</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>205</v>
       </c>
@@ -7387,7 +7386,7 @@
         <v>43.897198899999999</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>206</v>
       </c>
@@ -7410,7 +7409,7 @@
         <v>44.015410000000003</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>207</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>45.503399856879099</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>208</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>45.565389222839698</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>209</v>
       </c>
@@ -7479,7 +7478,7 @@
         <v>42.461785281347296</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>210</v>
       </c>
@@ -7502,7 +7501,7 @@
         <v>42.4232142482917</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>211</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>44.019081033097102</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>212</v>
       </c>
@@ -7548,7 +7547,7 @@
         <v>44.034979867348802</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>213</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>41.998723799183303</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>214</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>42.004954996657801</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>215</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>42.8710238004576</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>216</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>42.854682271373797</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>217</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>42.536861768500302</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>218</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>42.564322939183498</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>219</v>
       </c>
@@ -7715,7 +7714,7 @@
         <v>46.302406871760503</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>220</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>46.548294205966698</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>221</v>
       </c>
@@ -7767,7 +7766,7 @@
         <v>43.210666423748599</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>222</v>
       </c>
@@ -7790,7 +7789,7 @@
         <v>43.124708152061402</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>223</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>46.016831699487099</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>224</v>
       </c>
@@ -7836,7 +7835,7 @@
         <v>46.031310806296503</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>225</v>
       </c>
@@ -7859,7 +7858,7 @@
         <v>44.625613645223197</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>226</v>
       </c>
@@ -7882,7 +7881,7 @@
         <v>44.618197069450197</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>227</v>
       </c>
@@ -7905,7 +7904,7 @@
         <v>46.236663853067697</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>228</v>
       </c>
@@ -7928,7 +7927,7 @@
         <v>46.228865544168002</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>229</v>
       </c>
@@ -7951,7 +7950,7 @@
         <v>45.039160000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>230</v>
       </c>
@@ -7974,7 +7973,7 @@
         <v>45.034680000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>231</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>44.611725295803197</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>232</v>
       </c>
@@ -8020,7 +8019,7 @@
         <v>44.591244527493103</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>233</v>
       </c>
@@ -8043,7 +8042,7 @@
         <v>44.088529819902099</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>234</v>
       </c>
@@ -8066,7 +8065,7 @@
         <v>44.053867491918602</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>235</v>
       </c>
@@ -8089,7 +8088,7 @@
         <v>43.792846358704203</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>236</v>
       </c>
@@ -8112,7 +8111,7 @@
         <v>43.816476767409803</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>237</v>
       </c>
@@ -8135,7 +8134,7 @@
         <v>43.816474887036698</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>238</v>
       </c>
@@ -8158,7 +8157,7 @@
         <v>43.860187706480403</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>239</v>
       </c>
@@ -8181,7 +8180,7 @@
         <v>43.860219342677198</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>240</v>
       </c>
@@ -8204,7 +8203,7 @@
         <v>43.889525032350299</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>241</v>
       </c>
@@ -8227,7 +8226,7 @@
         <v>43.578938805256399</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>242</v>
       </c>
@@ -8250,7 +8249,7 @@
         <v>43.631549727571098</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>243</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>43.579356224145897</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>244</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>43.553790999396398</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>245</v>
       </c>
@@ -8319,7 +8318,7 @@
         <v>43.073681490296899</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>246</v>
       </c>
@@ -8342,7 +8341,7 @@
         <v>43.022722192054196</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>247</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>43.0009971917573</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>248</v>
       </c>
@@ -8388,7 +8387,7 @@
         <v>42.902563495099898</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>249</v>
       </c>
@@ -8411,7 +8410,7 @@
         <v>43.410224997711602</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>250</v>
       </c>
@@ -8434,7 +8433,7 @@
         <v>43.357226969039203</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>251</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>43.790295814581299</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>252</v>
       </c>
@@ -8480,7 +8479,7 @@
         <v>43.672217397985399</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>253</v>
       </c>
@@ -8503,7 +8502,7 @@
         <v>43.535499999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>254</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>43.438639999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>255</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>46.727483648227903</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>256</v>
       </c>
@@ -8572,7 +8571,7 @@
         <v>46.705430991447201</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>257</v>
       </c>
@@ -8595,7 +8594,7 @@
         <v>46.841184479701901</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>258</v>
       </c>
@@ -8618,7 +8617,7 @@
         <v>46.744161691606401</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>259</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>47.139867168129399</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>260</v>
       </c>
@@ -8664,7 +8663,7 @@
         <v>47.070333696147898</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>261</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>47.070261096622701</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>262</v>
       </c>
@@ -8710,7 +8709,7 @@
         <v>46.967784376104802</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>263</v>
       </c>
@@ -8733,7 +8732,7 @@
         <v>47.121348295116697</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>264</v>
       </c>
@@ -8756,7 +8755,7 @@
         <v>47.139941634338001</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>265</v>
       </c>
@@ -8779,7 +8778,7 @@
         <v>46.150072068820798</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>266</v>
       </c>
@@ -8802,7 +8801,7 @@
         <v>46.113669999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>267</v>
       </c>
@@ -8825,7 +8824,7 @@
         <v>42.7976477136855</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>268</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>42.828128490866</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>269</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>44.651850000000003</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>270</v>
       </c>
@@ -8894,7 +8893,7 @@
         <v>44.671300000000002</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>271</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>45.191949610170603</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>272</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>45.162494595390299</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>273</v>
       </c>
@@ -8963,7 +8962,7 @@
         <v>46.548409999999997</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>274</v>
       </c>
@@ -8986,7 +8985,7 @@
         <v>46.662770000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>275</v>
       </c>
@@ -9009,7 +9008,7 @@
         <v>45.281361395256802</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>276</v>
       </c>
@@ -9032,7 +9031,7 @@
         <v>45.298455056328699</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>277</v>
       </c>
@@ -9055,7 +9054,7 @@
         <v>45.266653674435197</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>278</v>
       </c>

--- a/Data/Western_Snowy_Plover_Window_Survey_dataset.xlsx
+++ b/Data/Western_Snowy_Plover_Window_Survey_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jacob_cochran_fws_gov/Documents/Desktop/R Markdown - Quarto Workshops/2025 Virtual Course/Quarto_Exercise-2025_Data_Management_Workshop/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="11_D988C6ACEA9225991F964136A7A82AC7A8F6DA74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{834DF642-81F8-4316-83FA-1A53F331368F}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="11_D988C6ACEA9225991F964136A7A82AC7A8F6DA74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC526ED9-1961-4109-996B-FB117E1671E5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="12960" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observation Data_0" sheetId="2" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>GlobalID</t>
   </si>
   <si>
-    <t>Survey Season</t>
-  </si>
-  <si>
     <t>Site</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>9e88268e-3aa1-43ad-8e74-b33480ebe908</t>
   </si>
   <si>
-    <t>winter</t>
-  </si>
-  <si>
     <t>78a0bf03-9dc5-4af7-83a4-9faeaf0be538</t>
   </si>
   <si>
@@ -1308,9 +1302,6 @@
     <t>0da2a57a-b104-4638-81f4-bfbac63dd82d</t>
   </si>
   <si>
-    <t>summer</t>
-  </si>
-  <si>
     <t>Agate Beach</t>
   </si>
   <si>
@@ -1329,10 +1320,19 @@
     <t>Juveniles</t>
   </si>
   <si>
-    <t>Duration (Hours)</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Duration_Hours</t>
+  </si>
+  <si>
+    <t>Survey_Season</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Winter</t>
   </si>
 </sst>
 </file>
@@ -1678,61 +1678,61 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A17" sqref="A17:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.47265625" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.68359375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>431</v>
       </c>
-      <c r="E1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H1" t="s">
-        <v>432</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>424</v>
-      </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C2" s="2">
         <v>44395.833333333336</v>
@@ -1760,12 +1760,12 @@
         <v>-124.06047725568401</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C3" s="2">
         <v>44366.833333333336</v>
@@ -1783,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H31" si="0">SUM(E3:G3)</f>
+        <f>SUM(E3:G3)</f>
         <v>24</v>
       </c>
       <c r="I3">
@@ -1793,12 +1793,12 @@
         <v>-124.07804882188201</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C4" s="2">
         <v>44336.833333333336</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>SUM(E4:G4)</f>
         <v>5</v>
       </c>
       <c r="I4">
@@ -1826,12 +1826,12 @@
         <v>-124.08259582902799</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C5" s="2">
         <v>44336.833333333336</v>
@@ -1849,7 +1849,7 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>SUM(E5:G5)</f>
         <v>15</v>
       </c>
       <c r="I5">
@@ -1859,12 +1859,12 @@
         <v>-124.124318158489</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C6" s="2">
         <v>44368</v>
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>SUM(E6:G6)</f>
         <v>4</v>
       </c>
       <c r="I6">
@@ -1892,672 +1892,672 @@
         <v>-124.125059260821</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C7" s="2">
-        <v>44212.833333333299</v>
+        <v>44306.833333333336</v>
       </c>
       <c r="D7">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(E7:G7)</f>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>44.670739399296203</v>
+        <v>44.066051878151903</v>
       </c>
       <c r="J7">
-        <v>-124.061751776261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>-124.12832379475699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C8" s="2">
-        <v>44212.833333333299</v>
+        <v>44336.833333333336</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f>SUM(E8:G8)</f>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>44.052705973323803</v>
+      </c>
+      <c r="J8">
+        <v>-124.1313583676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44396.833333333336</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>44.6804565587639</v>
-      </c>
-      <c r="J8">
-        <v>-124.069624662384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44214.833333333299</v>
-      </c>
-      <c r="D9">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="H9">
+        <f>SUM(E9:G9)</f>
         <v>3</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
       <c r="I9">
-        <v>44.706311369917998</v>
+        <v>44.056500703193102</v>
       </c>
       <c r="J9">
-        <v>-124.061452056091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>-124.129962464111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="B10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C10" s="2">
-        <v>44212.833333333299</v>
+        <v>44397.833333333336</v>
       </c>
       <c r="D10">
         <v>2.25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(E10:G10)</f>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>44.717155640707297</v>
+        <v>44.049739808256597</v>
       </c>
       <c r="J10">
-        <v>-124.059563751685</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>-124.1313583676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C11" s="2">
-        <v>44215.833333333299</v>
+        <v>44367.833333333336</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f>SUM(E11:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>43.350748501031198</v>
+      </c>
+      <c r="J11">
+        <v>-124.344705275519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44397.833333333336</v>
+      </c>
+      <c r="D12">
+        <v>2.25</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="I11">
-        <v>44.512833466937302</v>
-      </c>
-      <c r="J11">
-        <v>-124.08021406345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="H12">
+        <f>SUM(E12:G12)</f>
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>41.027864723566303</v>
+      </c>
+      <c r="J12">
+        <v>-124.11331446049699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" t="s">
         <v>424</v>
       </c>
-      <c r="B12" t="s">
-        <v>426</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44306.833333333336</v>
-      </c>
-      <c r="D12">
+      <c r="C13" s="2">
+        <v>44338.833333333336</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <f>SUM(E13:G13)</f>
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>41.0113215620608</v>
+      </c>
+      <c r="J13">
+        <v>-124.114600467636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44340.833333333336</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <f>SUM(E14:G14)</f>
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>40.297372636274702</v>
+      </c>
+      <c r="J14">
+        <v>-124.355847107801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44375</v>
+      </c>
+      <c r="D15">
         <v>1.5</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I12">
-        <v>44.066051878151903</v>
-      </c>
-      <c r="J12">
-        <v>-124.12832379475699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>424</v>
-      </c>
-      <c r="B13" t="s">
-        <v>426</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44336.833333333336</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>44.052705973323803</v>
-      </c>
-      <c r="J13">
-        <v>-124.1313583676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>424</v>
-      </c>
-      <c r="B14" t="s">
-        <v>426</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44396.833333333336</v>
-      </c>
-      <c r="D14">
-        <v>0.5</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>44.056500703193102</v>
-      </c>
-      <c r="J14">
-        <v>-124.129962464111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>424</v>
-      </c>
-      <c r="B15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44397.833333333336</v>
-      </c>
-      <c r="D15">
-        <v>2.25</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <f>SUM(E15:G15)</f>
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>40.295359829822402</v>
+      </c>
+      <c r="J15">
+        <v>-124.35431121405701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f>SUM(E16:G16)</f>
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>40.293712567116401</v>
+      </c>
+      <c r="J16">
+        <v>-124.354731785903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44212.833333333299</v>
+      </c>
+      <c r="D17">
+        <v>2.25</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f>SUM(E17:G17)</f>
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>44.670739399296203</v>
+      </c>
+      <c r="J17">
+        <v>-124.061751776261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>432</v>
+      </c>
+      <c r="B18" t="s">
+        <v>422</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44212.833333333299</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I15">
-        <v>44.049739808256597</v>
-      </c>
-      <c r="J15">
-        <v>-124.1313583676</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>424</v>
-      </c>
-      <c r="B16" t="s">
-        <v>426</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44367.833333333336</v>
-      </c>
-      <c r="D16">
-        <v>0.75</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>43.350748501031198</v>
-      </c>
-      <c r="J16">
-        <v>-124.344705275519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>426</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44247.833333333336</v>
-      </c>
-      <c r="D17">
+      <c r="F18">
         <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>43.373011038442897</v>
-      </c>
-      <c r="J17">
-        <v>-124.324903605872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>426</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44247.833333333336</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(E18:G18)</f>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>43.3719723017837</v>
+        <v>44.6804565587639</v>
       </c>
       <c r="J18">
-        <v>-124.324087042226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>-124.069624662384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="B19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C19" s="2">
-        <v>44277.833333333336</v>
+        <v>44214.833333333299</v>
       </c>
       <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f>SUM(E19:G19)</f>
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>44.706311369917998</v>
+      </c>
+      <c r="J19">
+        <v>-124.061452056091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44212.833333333299</v>
+      </c>
+      <c r="D20">
+        <v>2.25</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <f>SUM(E20:G20)</f>
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>44.717155640707297</v>
+      </c>
+      <c r="J20">
+        <v>-124.059563751685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44215.833333333299</v>
+      </c>
+      <c r="D21">
         <v>0.5</v>
       </c>
-      <c r="E19">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>43.045260969553802</v>
-      </c>
-      <c r="J19">
-        <v>-124.442904730173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>426</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44247</v>
-      </c>
-      <c r="D20">
-        <v>0.75</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>43.045281640083097</v>
-      </c>
-      <c r="J20">
-        <v>-124.442513686098</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>426</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44250</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(E21:G21)</f>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>43.041168802288098</v>
+        <v>44.512833466937302</v>
       </c>
       <c r="J21">
-        <v>-124.44517005041099</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>-124.08021406345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B22" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C22" s="2">
-        <v>44397.833333333336</v>
+        <v>44247.833333333336</v>
       </c>
       <c r="D22">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>SUM(E22:G22)</f>
         <v>3</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
       <c r="I22">
-        <v>41.027864723566303</v>
+        <v>43.373011038442897</v>
       </c>
       <c r="J22">
-        <v>-124.11331446049699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>-124.324903605872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C23" s="2">
-        <v>44338.833333333336</v>
+        <v>44247.833333333336</v>
       </c>
       <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>SUM(E23:G23)</f>
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>43.3719723017837</v>
+      </c>
+      <c r="J23">
+        <v>-124.324087042226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44277.833333333336</v>
+      </c>
+      <c r="D24">
         <v>0.5</v>
       </c>
-      <c r="E23">
-        <v>8</v>
-      </c>
-      <c r="F23">
-        <v>7</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I23">
-        <v>41.0113215620608</v>
-      </c>
-      <c r="J23">
-        <v>-124.114600467636</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>424</v>
-      </c>
-      <c r="B24" t="s">
-        <v>427</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44340.833333333336</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
       <c r="E24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>SUM(E24:G24)</f>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>40.297372636274702</v>
+        <v>43.045260969553802</v>
       </c>
       <c r="J24">
-        <v>-124.355847107801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>-124.442904730173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B25" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C25" s="2">
-        <v>44375</v>
+        <v>44247</v>
       </c>
       <c r="D25">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>SUM(E25:G25)</f>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>40.295359829822402</v>
+        <v>43.045281640083097</v>
       </c>
       <c r="J25">
-        <v>-124.35431121405701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>-124.442513686098</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>432</v>
+      </c>
+      <c r="B26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44250</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f>SUM(E26:G26)</f>
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>43.041168802288098</v>
+      </c>
+      <c r="J26">
+        <v>-124.44517005041099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>432</v>
+      </c>
+      <c r="B27" t="s">
         <v>424</v>
-      </c>
-      <c r="B26" t="s">
-        <v>427</v>
-      </c>
-      <c r="C26" s="2">
-        <v>44372</v>
-      </c>
-      <c r="D26">
-        <v>0.5</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I26">
-        <v>40.293712567116401</v>
-      </c>
-      <c r="J26">
-        <v>-124.354731785903</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>427</v>
       </c>
       <c r="C27" s="2">
         <v>44277.833333333336</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f>SUM(E27:G27)</f>
         <v>5</v>
       </c>
       <c r="I27">
@@ -2585,12 +2585,12 @@
         <v>-124.110940057512</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C28" s="2">
         <v>44217.833333333299</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f>SUM(E28:G28)</f>
         <v>1</v>
       </c>
       <c r="I28">
@@ -2618,12 +2618,12 @@
         <v>-124.113764562995</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="B29" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C29" s="2">
         <v>44215.833333333299</v>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f>SUM(E29:G29)</f>
         <v>4</v>
       </c>
       <c r="I29">
@@ -2651,12 +2651,12 @@
         <v>-124.114278965851</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="B30" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C30" s="2">
         <v>44221.833333333336</v>
@@ -2674,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f>SUM(E30:G30)</f>
         <v>8</v>
       </c>
       <c r="I30">
@@ -2684,12 +2684,12 @@
         <v>-124.35623220430899</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="B31" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C31" s="2">
         <v>44217.833333333336</v>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f>SUM(E31:G31)</f>
         <v>3</v>
       </c>
       <c r="I31">
@@ -2718,8 +2718,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I30">
-    <sortCondition ref="B2:B30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
+    <sortCondition ref="A1:A31"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -2731,9 +2731,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2741,36 +2741,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>44212.983909838003</v>
@@ -2785,15 +2785,15 @@
         <v>44.746283698680202</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>44212.983909838003</v>
@@ -2808,15 +2808,15 @@
         <v>44.652628811044799</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>44214.797158125002</v>
@@ -2831,15 +2831,15 @@
         <v>44.424496639712999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>44214.797158125002</v>
@@ -2854,15 +2854,15 @@
         <v>44.437084280937498</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>44215.220970347204</v>
@@ -2877,15 +2877,15 @@
         <v>42.005093163773502</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>44215.220970347204</v>
@@ -2900,15 +2900,15 @@
         <v>41.998466626617798</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>44215.749728044</v>
@@ -2923,15 +2923,15 @@
         <v>44.400479492926301</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>44215.749728044</v>
@@ -2946,15 +2946,15 @@
         <v>44.420414923080202</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>44215.7540751505</v>
@@ -2969,15 +2969,15 @@
         <v>45.703507775190403</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>44215.7540751505</v>
@@ -2992,15 +2992,15 @@
         <v>45.668525849692401</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>44216.034152604203</v>
@@ -3015,15 +3015,15 @@
         <v>43.790044895542003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>44216.034152604203</v>
@@ -3038,15 +3038,15 @@
         <v>43.672720325273303</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
         <v>44216.737975393502</v>
@@ -3061,15 +3061,15 @@
         <v>42.461773519151997</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1">
         <v>44216.737975393502</v>
@@ -3084,15 +3084,15 @@
         <v>42.4231421689882</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1">
         <v>44216.806751354197</v>
@@ -3107,15 +3107,15 @@
         <v>44.436483557864499</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
         <v>44216.806751354197</v>
@@ -3130,15 +3130,15 @@
         <v>44.424961357090901</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>44216.850248009301</v>
@@ -3153,15 +3153,15 @@
         <v>44.452539996454703</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1">
         <v>44216.850248009301</v>
@@ -3176,15 +3176,15 @@
         <v>44.47804</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1">
         <v>44217.592669710597</v>
@@ -3199,15 +3199,15 @@
         <v>44.452640453478502</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1">
         <v>44217.592669710597</v>
@@ -3222,15 +3222,15 @@
         <v>44.426049905304403</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
         <v>44217.737718784701</v>
@@ -3245,15 +3245,15 @@
         <v>44.621709753598999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
         <v>44217.737718784701</v>
@@ -3268,15 +3268,15 @@
         <v>44.625478587275801</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1">
         <v>44217.823513032403</v>
@@ -3291,15 +3291,15 @@
         <v>46.722872280625197</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1">
         <v>44217.823513032403</v>
@@ -3314,15 +3314,15 @@
         <v>46.706706512243002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1">
         <v>44218.767676990698</v>
@@ -3337,15 +3337,15 @@
         <v>46.849187616400997</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1">
         <v>44218.767676990698</v>
@@ -3360,15 +3360,15 @@
         <v>46.737381596195398</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1">
         <v>44218.773373865697</v>
@@ -3383,15 +3383,15 @@
         <v>46.962825917194799</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1">
         <v>44218.773373865697</v>
@@ -3406,15 +3406,15 @@
         <v>47.070339628980001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1">
         <v>44218.775507824103</v>
@@ -3429,15 +3429,15 @@
         <v>47.070376414277298</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1">
         <v>44218.775507824103</v>
@@ -3452,15 +3452,15 @@
         <v>47.139650291148698</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1">
         <v>44218.778016782402</v>
@@ -3475,15 +3475,15 @@
         <v>47.1223990197281</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1">
         <v>44218.778016782402</v>
@@ -3498,15 +3498,15 @@
         <v>47.139988043207502</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1">
         <v>44218.7816735417</v>
@@ -3521,15 +3521,15 @@
         <v>46.945512664039001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D35" s="1">
         <v>44218.7816735417</v>
@@ -3544,15 +3544,15 @@
         <v>46.940318976574602</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1">
         <v>44218.906592025502</v>
@@ -3567,15 +3567,15 @@
         <v>44.920036541722503</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1">
         <v>44218.906592025502</v>
@@ -3590,15 +3590,15 @@
         <v>44.923847750348699</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1">
         <v>44218.969723657399</v>
@@ -3613,15 +3613,15 @@
         <v>43.185445866953302</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1">
         <v>44218.969723657399</v>
@@ -3636,27 +3636,27 @@
         <v>43.127067340500801</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1">
         <v>44221.101402314802</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F40" s="1">
         <v>44221.101402314802</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>-123.965115115684</v>
@@ -3665,27 +3665,27 @@
         <v>45.268939733837698</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1">
         <v>44221.101402314802</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F41" s="1">
         <v>44221.101402314802</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>-123.959815838138</v>
@@ -3694,15 +3694,15 @@
         <v>45.287624807543096</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1">
         <v>44221.855585254598</v>
@@ -3717,15 +3717,15 @@
         <v>43.893166577385898</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D43" s="1">
         <v>44221.855585254598</v>
@@ -3740,15 +3740,15 @@
         <v>44.015011653121398</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D44" s="1">
         <v>44221.964760567098</v>
@@ -3763,15 +3763,15 @@
         <v>45.192489090852099</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D45" s="1">
         <v>44221.964760567098</v>
@@ -3786,15 +3786,15 @@
         <v>45.161599290678602</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D46" s="1">
         <v>44222.781936203697</v>
@@ -3809,15 +3809,15 @@
         <v>46.228550830989803</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D47" s="1">
         <v>44222.781936203697</v>
@@ -3832,15 +3832,15 @@
         <v>46.237270266310396</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D48" s="1">
         <v>44222.900939398103</v>
@@ -3855,15 +3855,15 @@
         <v>46.27111</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D49" s="1">
         <v>44222.900939398103</v>
@@ -3878,27 +3878,27 @@
         <v>46.296759999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D50" s="1">
         <v>44222.913758819399</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F50" s="1">
         <v>44222.913758819399</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>-124.07441</v>
@@ -3907,27 +3907,27 @@
         <v>46.30292</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D51" s="1">
         <v>44222.913758819399</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F51" s="1">
         <v>44222.913758819399</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>-124.06245</v>
@@ -3936,27 +3936,27 @@
         <v>46.548409999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D52" s="1">
         <v>44222.958613310198</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F52" s="1">
         <v>44222.958613310198</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>-124.06245</v>
@@ -3965,27 +3965,27 @@
         <v>46.548409999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D53" s="1">
         <v>44222.958613310198</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F53" s="1">
         <v>44222.958613310198</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>-124.0573</v>
@@ -3994,15 +3994,15 @@
         <v>46.662190000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D54" s="1">
         <v>44223.037331874999</v>
@@ -4017,15 +4017,15 @@
         <v>46.012303934484997</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D55" s="1">
         <v>44223.037331874999</v>
@@ -4040,15 +4040,15 @@
         <v>46.023667131546603</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D56" s="1">
         <v>44223.953292199098</v>
@@ -4063,15 +4063,15 @@
         <v>42.988783938248297</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D57" s="1">
         <v>44223.953292199098</v>
@@ -4086,15 +4086,15 @@
         <v>42.894779999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D58" s="1">
         <v>44223.962089085602</v>
@@ -4109,15 +4109,15 @@
         <v>43.0726623894083</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D59" s="1">
         <v>44223.962089085602</v>
@@ -4132,15 +4132,15 @@
         <v>42.991270145476001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D60" s="1">
         <v>44223.976097256898</v>
@@ -4155,15 +4155,15 @@
         <v>43.412842286147701</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D61" s="1">
         <v>44223.976097256898</v>
@@ -4178,15 +4178,15 @@
         <v>43.358952405587203</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D62" s="1">
         <v>44223.988395162</v>
@@ -4201,15 +4201,15 @@
         <v>43.576115693071998</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D63" s="1">
         <v>44223.988395162</v>
@@ -4224,15 +4224,15 @@
         <v>43.555147141559097</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D64" s="1">
         <v>44223.990579375</v>
@@ -4247,15 +4247,15 @@
         <v>43.6320663862857</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D65" s="1">
         <v>44223.990579375</v>
@@ -4270,15 +4270,15 @@
         <v>43.577572230854301</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D66" s="1">
         <v>44224.791592083297</v>
@@ -4293,15 +4293,15 @@
         <v>43.806248332874397</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D67" s="1">
         <v>44224.791592083297</v>
@@ -4316,15 +4316,15 @@
         <v>43.790289767927497</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D68" s="1">
         <v>44224.794413541698</v>
@@ -4339,15 +4339,15 @@
         <v>43.8689014508996</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D69" s="1">
         <v>44224.794413541698</v>
@@ -4362,15 +4362,15 @@
         <v>43.808626890425998</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D70" s="1">
         <v>44224.797933726899</v>
@@ -4385,15 +4385,15 @@
         <v>43.924149093498997</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D71" s="1">
         <v>44224.797933726899</v>
@@ -4408,15 +4408,15 @@
         <v>43.870535004871201</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D72" s="1">
         <v>44224.800308032398</v>
@@ -4431,15 +4431,15 @@
         <v>44.088894938977198</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D73" s="1">
         <v>44224.800308032398</v>
@@ -4454,15 +4454,15 @@
         <v>44.052713474780397</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D74" s="1">
         <v>44228.847675949102</v>
@@ -4477,15 +4477,15 @@
         <v>45.5057841</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D75" s="1">
         <v>44228.847675949102</v>
@@ -4500,15 +4500,15 @@
         <v>45.530504800000003</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D76" s="1">
         <v>44228.932083425898</v>
@@ -4523,15 +4523,15 @@
         <v>44.612520098828803</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D77" s="1">
         <v>44228.932083425898</v>
@@ -4546,15 +4546,15 @@
         <v>44.598199772947503</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D78" s="1">
         <v>44228.966200520801</v>
@@ -4569,15 +4569,15 @@
         <v>42.275698142188901</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D79" s="1">
         <v>44228.966200520801</v>
@@ -4592,15 +4592,15 @@
         <v>42.271664597405596</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D80" s="1">
         <v>44228.977182638897</v>
@@ -4615,15 +4615,15 @@
         <v>45.369753550225603</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D81" s="1">
         <v>44228.977182638897</v>
@@ -4638,15 +4638,15 @@
         <v>45.428818912750103</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C82" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D82" s="1">
         <v>44229.047804791699</v>
@@ -4661,15 +4661,15 @@
         <v>45.528397535397502</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D83" s="1">
         <v>44229.047804791699</v>
@@ -4684,15 +4684,15 @@
         <v>45.565469980874099</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D84" s="1">
         <v>44229.761052800903</v>
@@ -4707,15 +4707,15 @@
         <v>46.113855582881499</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D85" s="1">
         <v>44229.761052800903</v>
@@ -4730,15 +4730,15 @@
         <v>46.1497784413137</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D86" s="1">
         <v>44230.176229143501</v>
@@ -4753,15 +4753,15 @@
         <v>42.561232500985597</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D87" s="1">
         <v>44230.176229143501</v>
@@ -4776,15 +4776,15 @@
         <v>42.536371333628203</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D88" s="1">
         <v>44231.2471288542</v>
@@ -4799,15 +4799,15 @@
         <v>42.871349484528999</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D89" s="1">
         <v>44231.2471288542</v>
@@ -4822,15 +4822,15 @@
         <v>42.854463323981797</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C90" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D90" s="1">
         <v>44231.739247685196</v>
@@ -4845,15 +4845,15 @@
         <v>44.057534133786802</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D91" s="1">
         <v>44231.739247685196</v>
@@ -4868,15 +4868,15 @@
         <v>44.018805982570001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D92" s="1">
         <v>44235.906881851901</v>
@@ -4891,15 +4891,15 @@
         <v>42.791427929488897</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D93" s="1">
         <v>44235.906881851901</v>
@@ -4914,15 +4914,15 @@
         <v>42.813695513709803</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D94" s="1">
         <v>44235.911979386598</v>
@@ -4937,15 +4937,15 @@
         <v>42.824415598925498</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D95" s="1">
         <v>44235.911979386598</v>
@@ -4960,15 +4960,15 @@
         <v>42.813543384211798</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C96" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D96" s="1">
         <v>44332.702616562499</v>
@@ -4983,15 +4983,15 @@
         <v>44.597141656258501</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D97" s="1">
         <v>44332.702616562499</v>
@@ -5006,15 +5006,15 @@
         <v>44.612760404593402</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C98" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D98" s="1">
         <v>44333.538273275502</v>
@@ -5029,15 +5029,15 @@
         <v>44.620675014887397</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C99" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D99" s="1">
         <v>44333.538273275502</v>
@@ -5052,15 +5052,15 @@
         <v>44.626081399382201</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D100" s="1">
         <v>44333.984887245402</v>
@@ -5075,15 +5075,15 @@
         <v>44.4006690005331</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C101" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D101" s="1">
         <v>44333.984887245402</v>
@@ -5098,15 +5098,15 @@
         <v>44.4198204416181</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D102" s="1">
         <v>44333.995556423601</v>
@@ -5121,15 +5121,15 @@
         <v>44.423557625675201</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C103" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D103" s="1">
         <v>44333.995556423601</v>
@@ -5144,15 +5144,15 @@
         <v>44.483085075744398</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D104" s="1">
         <v>44335.086675694401</v>
@@ -5167,15 +5167,15 @@
         <v>42.560674170748598</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C105" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D105" s="1">
         <v>44335.086675694401</v>
@@ -5190,15 +5190,15 @@
         <v>42.5364919842212</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C106" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D106" s="1">
         <v>44335.649410694401</v>
@@ -5213,15 +5213,15 @@
         <v>45.201974459146697</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C107" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D107" s="1">
         <v>44335.649410694401</v>
@@ -5236,15 +5236,15 @@
         <v>45.161236089665401</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D108" s="1">
         <v>44335.710627858803</v>
@@ -5259,15 +5259,15 @@
         <v>42.869024863669097</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C109" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D109" s="1">
         <v>44335.710627858803</v>
@@ -5282,15 +5282,15 @@
         <v>42.851660299977503</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D110" s="1">
         <v>44335.876194351898</v>
@@ -5305,15 +5305,15 @@
         <v>43.210875055151497</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D111" s="1">
         <v>44335.876194351898</v>
@@ -5328,15 +5328,15 @@
         <v>43.125684601347203</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C112" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D112" s="1">
         <v>44336.147469131902</v>
@@ -5351,15 +5351,15 @@
         <v>45.531289676437702</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C113" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D113" s="1">
         <v>44336.147469131902</v>
@@ -5374,15 +5374,15 @@
         <v>45.5656848021926</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C114" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D114" s="1">
         <v>44336.6476593634</v>
@@ -5397,15 +5397,15 @@
         <v>44.658294120119997</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C115" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D115" s="1">
         <v>44336.6476593634</v>
@@ -5420,15 +5420,15 @@
         <v>44.673872092350202</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C116" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D116" s="1">
         <v>44336.777347997697</v>
@@ -5443,15 +5443,15 @@
         <v>41.999269581707601</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D117" s="1">
         <v>44336.777347997697</v>
@@ -5466,15 +5466,15 @@
         <v>42.004999644039103</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C118" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D118" s="1">
         <v>44336.781723495398</v>
@@ -5489,15 +5489,15 @@
         <v>42.301015774601701</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C119" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D119" s="1">
         <v>44336.781723495398</v>
@@ -5512,15 +5512,15 @@
         <v>42.287029961477799</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C120" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D120" s="1">
         <v>44336.784569525502</v>
@@ -5535,15 +5535,15 @@
         <v>42.461599833126598</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C121" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D121" s="1">
         <v>44336.784569525502</v>
@@ -5558,15 +5558,15 @@
         <v>42.422917579963197</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C122" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D122" s="1">
         <v>44337.835911516202</v>
@@ -5581,15 +5581,15 @@
         <v>46.235981258283203</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C123" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D123" s="1">
         <v>44337.835911516202</v>
@@ -5604,15 +5604,15 @@
         <v>46.229201757936302</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C124" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D124" s="1">
         <v>44340.634031724498</v>
@@ -5627,15 +5627,15 @@
         <v>45.034729292883597</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C125" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D125" s="1">
         <v>44340.634031724498</v>
@@ -5650,15 +5650,15 @@
         <v>45.039607994372503</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C126" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D126" s="1">
         <v>44340.756218506896</v>
@@ -5673,15 +5673,15 @@
         <v>44.919619910038897</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C127" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D127" s="1">
         <v>44340.756218506896</v>
@@ -5696,15 +5696,15 @@
         <v>44.924675722654001</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C128" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D128" s="1">
         <v>44340.833526608803</v>
@@ -5719,15 +5719,15 @@
         <v>46.746428664774797</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C129" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D129" s="1">
         <v>44340.833526608803</v>
@@ -5742,15 +5742,15 @@
         <v>46.793963257569501</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C130" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D130" s="1">
         <v>44340.839262743102</v>
@@ -5765,15 +5765,15 @@
         <v>46.7239100385802</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C131" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D131" s="1">
         <v>44340.839262743102</v>
@@ -5788,15 +5788,15 @@
         <v>46.705886454818902</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C132" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D132" s="1">
         <v>44340.842627719903</v>
@@ -5811,15 +5811,15 @@
         <v>46.949323893341997</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D133" s="1">
         <v>44340.842627719903</v>
@@ -5834,15 +5834,15 @@
         <v>47.0703190822151</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C134" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D134" s="1">
         <v>44340.8445281944</v>
@@ -5857,15 +5857,15 @@
         <v>47.070269620757301</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C135" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D135" s="1">
         <v>44340.8445281944</v>
@@ -5880,15 +5880,15 @@
         <v>47.121056326509098</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C136" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D136" s="1">
         <v>44340.846227303198</v>
@@ -5903,15 +5903,15 @@
         <v>47.121304546928599</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C137" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D137" s="1">
         <v>44340.846227303198</v>
@@ -5926,15 +5926,15 @@
         <v>47.139862213588401</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C138" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D138" s="1">
         <v>44340.8478480208</v>
@@ -5949,15 +5949,15 @@
         <v>46.945399696498697</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C139" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D139" s="1">
         <v>44340.8478480208</v>
@@ -5972,15 +5972,15 @@
         <v>46.940997475119403</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D140" s="1">
         <v>44340.856648831003</v>
@@ -5995,15 +5995,15 @@
         <v>43.887672811539403</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C141" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D141" s="1">
         <v>44340.856648831003</v>
@@ -6018,15 +6018,15 @@
         <v>44.015505545641197</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C142" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D142" s="1">
         <v>44340.867954953697</v>
@@ -6041,15 +6041,15 @@
         <v>46.015113602977202</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C143" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D143" s="1">
         <v>44340.867954953697</v>
@@ -6064,15 +6064,15 @@
         <v>46.030820386381201</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C144" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D144" s="1">
         <v>44340.984959756897</v>
@@ -6087,15 +6087,15 @@
         <v>45.505717446212401</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C145" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D145" s="1">
         <v>44340.984959756897</v>
@@ -6110,15 +6110,15 @@
         <v>45.52761843671</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C146" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D146" s="1">
         <v>44342.827910370397</v>
@@ -6133,15 +6133,15 @@
         <v>42.827059237719503</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C147" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D147" s="1">
         <v>44342.827910370397</v>
@@ -6156,15 +6156,15 @@
         <v>42.796978041846799</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C148" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D148" s="1">
         <v>44343.969939502298</v>
@@ -6179,15 +6179,15 @@
         <v>46.148940000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C149" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D149" s="1">
         <v>44343.969939502298</v>
@@ -6202,15 +6202,15 @@
         <v>46.113597009072599</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C150" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D150" s="1">
         <v>44344.899776527804</v>
@@ -6225,15 +6225,15 @@
         <v>45.267330000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C151" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D151" s="1">
         <v>44344.899776527804</v>
@@ -6248,15 +6248,15 @@
         <v>45.275184000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C152" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D152" s="1">
         <v>44344.902828124999</v>
@@ -6271,15 +6271,15 @@
         <v>45.686861999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C153" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D153" s="1">
         <v>44344.902828124999</v>
@@ -6294,15 +6294,15 @@
         <v>45.657623000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C154" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D154" s="1">
         <v>44344.904806794002</v>
@@ -6317,15 +6317,15 @@
         <v>45.368820999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C155" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D155" s="1">
         <v>44344.904806794002</v>
@@ -6340,15 +6340,15 @@
         <v>45.428162999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C156" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D156" s="1">
         <v>44344.993087905103</v>
@@ -6363,15 +6363,15 @@
         <v>46.548360000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>162</v>
       </c>
       <c r="B157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C157" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D157" s="1">
         <v>44344.993087905103</v>
@@ -6386,15 +6386,15 @@
         <v>46.644930000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C158" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D158" s="1">
         <v>44344.997713842597</v>
@@ -6409,15 +6409,15 @@
         <v>46.270697874028897</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D159" s="1">
         <v>44344.997713842597</v>
@@ -6432,15 +6432,15 @@
         <v>46.296869999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>165</v>
       </c>
       <c r="B160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C160" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D160" s="1">
         <v>44345.002386898203</v>
@@ -6455,15 +6455,15 @@
         <v>46.548360000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C161" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D161" s="1">
         <v>44345.002386898203</v>
@@ -6478,15 +6478,15 @@
         <v>46.302500000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C162" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D162" s="1">
         <v>44348.7087156134</v>
@@ -6501,15 +6501,15 @@
         <v>45.281725633697597</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C163" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D163" s="1">
         <v>44348.7087156134</v>
@@ -6524,15 +6524,15 @@
         <v>45.287159338570703</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C164" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D164" s="1">
         <v>44348.988598993099</v>
@@ -6547,15 +6547,15 @@
         <v>44.051109346742699</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>170</v>
       </c>
       <c r="B165" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C165" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D165" s="1">
         <v>44348.988598993099</v>
@@ -6570,15 +6570,15 @@
         <v>44.018586893399899</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C166" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D166" s="1">
         <v>44357.051488275501</v>
@@ -6593,15 +6593,15 @@
         <v>43.4117686389718</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C167" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D167" s="1">
         <v>44357.051488275501</v>
@@ -6616,15 +6616,15 @@
         <v>43.357080314873201</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C168" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D168" s="1">
         <v>44357.057164004596</v>
@@ -6639,15 +6639,15 @@
         <v>43.078991717235503</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C169" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D169" s="1">
         <v>44357.057164004596</v>
@@ -6662,15 +6662,15 @@
         <v>42.987718723990099</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>175</v>
       </c>
       <c r="B170" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C170" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D170" s="1">
         <v>44357.061287789402</v>
@@ -6685,15 +6685,15 @@
         <v>42.985425787687703</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C171" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D171" s="1">
         <v>44357.061287789402</v>
@@ -6708,15 +6708,15 @@
         <v>42.9026562309745</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C172" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D172" s="1">
         <v>44385.9524683333</v>
@@ -6731,15 +6731,15 @@
         <v>44.104890588505803</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>178</v>
       </c>
       <c r="B173" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C173" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D173" s="1">
         <v>44385.9524683333</v>
@@ -6754,15 +6754,15 @@
         <v>44.051791199009003</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>179</v>
       </c>
       <c r="B174" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C174" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D174" s="1">
         <v>44385.953193495399</v>
@@ -6777,15 +6777,15 @@
         <v>43.791056618631799</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C175" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D175" s="1">
         <v>44385.953193495399</v>
@@ -6800,15 +6800,15 @@
         <v>43.748527412098099</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C176" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D176" s="1">
         <v>44385.960124375</v>
@@ -6823,15 +6823,15 @@
         <v>43.881593700912497</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>182</v>
       </c>
       <c r="B177" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C177" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D177" s="1">
         <v>44385.960124375</v>
@@ -6846,15 +6846,15 @@
         <v>43.860108852297699</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C178" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D178" s="1">
         <v>44385.964137800896</v>
@@ -6869,15 +6869,15 @@
         <v>43.860184559931703</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C179" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D179" s="1">
         <v>44385.964137800896</v>
@@ -6892,15 +6892,15 @@
         <v>43.816591375265297</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C180" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D180" s="1">
         <v>44385.971571076399</v>
@@ -6915,15 +6915,15 @@
         <v>43.816452360830397</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C181" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D181" s="1">
         <v>44385.971571076399</v>
@@ -6938,15 +6938,15 @@
         <v>43.790668108073497</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>187</v>
       </c>
       <c r="B182" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C182" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D182" s="1">
         <v>44385.975618402801</v>
@@ -6961,15 +6961,15 @@
         <v>43.6561337504574</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C183" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D183" s="1">
         <v>44385.975618402801</v>
@@ -6984,15 +6984,15 @@
         <v>43.549108079019298</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>189</v>
       </c>
       <c r="B184" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C184" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D184" s="1">
         <v>44398.933222893502</v>
@@ -7007,15 +7007,15 @@
         <v>43.664442834905202</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C185" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D185" s="1">
         <v>44398.933222893502</v>
@@ -7030,15 +7030,15 @@
         <v>43.3628999455197</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C186" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D186" s="1">
         <v>44575.984102615701</v>
@@ -7053,15 +7053,15 @@
         <v>34.056795690033702</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C187" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D187" s="1">
         <v>44575.984102615701</v>
@@ -7076,27 +7076,27 @@
         <v>34.057464187188501</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>193</v>
       </c>
       <c r="B188" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C188" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D188" s="1">
         <v>44577.991573831001</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F188" s="1">
         <v>44577.991573831001</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>-124.074396675893</v>
@@ -7105,27 +7105,27 @@
         <v>46.271541167202898</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C189" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D189" s="1">
         <v>44577.991573831001</v>
       </c>
       <c r="E189" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F189" s="1">
         <v>44577.991573831001</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H189">
         <v>-124.07596347736001</v>
@@ -7134,15 +7134,15 @@
         <v>46.296730076082603</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C190" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D190" s="1">
         <v>44578.879575914398</v>
@@ -7157,15 +7157,15 @@
         <v>44.9258324314047</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C191" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D191" s="1">
         <v>44578.879575914398</v>
@@ -7180,15 +7180,15 @@
         <v>44.919713258124098</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>197</v>
       </c>
       <c r="B192" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C192" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D192" s="1">
         <v>44579.150434965297</v>
@@ -7203,15 +7203,15 @@
         <v>45.375441745823899</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>198</v>
       </c>
       <c r="B193" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C193" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D193" s="1">
         <v>44579.150434965297</v>
@@ -7226,15 +7226,15 @@
         <v>45.433783742499401</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>199</v>
       </c>
       <c r="B194" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C194" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D194" s="1">
         <v>44579.757736747699</v>
@@ -7249,15 +7249,15 @@
         <v>44.452666053898596</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C195" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D195" s="1">
         <v>44579.757736747699</v>
@@ -7272,15 +7272,15 @@
         <v>44.424285546364601</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>201</v>
       </c>
       <c r="B196" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C196" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D196" s="1">
         <v>44579.761095810201</v>
@@ -7295,15 +7295,15 @@
         <v>44.400478568454901</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>202</v>
       </c>
       <c r="B197" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C197" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D197" s="1">
         <v>44579.761095810201</v>
@@ -7318,15 +7318,15 @@
         <v>44.419718651356902</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>203</v>
       </c>
       <c r="B198" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C198" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D198" s="1">
         <v>44580.029924224502</v>
@@ -7341,15 +7341,15 @@
         <v>45.703531689568401</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>204</v>
       </c>
       <c r="B199" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C199" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D199" s="1">
         <v>44580.029924224502</v>
@@ -7364,15 +7364,15 @@
         <v>45.658283464353097</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>205</v>
       </c>
       <c r="B200" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C200" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D200" s="1">
         <v>44580.725707604201</v>
@@ -7387,15 +7387,15 @@
         <v>43.897198899999999</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>206</v>
       </c>
       <c r="B201" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C201" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D201" s="1">
         <v>44580.725707604201</v>
@@ -7410,15 +7410,15 @@
         <v>44.015410000000003</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C202" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D202" s="1">
         <v>44580.782262951398</v>
@@ -7433,15 +7433,15 @@
         <v>45.503399856879099</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>208</v>
       </c>
       <c r="B203" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C203" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D203" s="1">
         <v>44580.782262951398</v>
@@ -7456,15 +7456,15 @@
         <v>45.565389222839698</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>209</v>
       </c>
       <c r="B204" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C204" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D204" s="1">
         <v>44580.954311944399</v>
@@ -7479,15 +7479,15 @@
         <v>42.461785281347296</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>210</v>
       </c>
       <c r="B205" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C205" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D205" s="1">
         <v>44580.954311944399</v>
@@ -7502,15 +7502,15 @@
         <v>42.4232142482917</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>211</v>
       </c>
       <c r="B206" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C206" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D206" s="1">
         <v>44581.804705092603</v>
@@ -7525,15 +7525,15 @@
         <v>44.019081033097102</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>212</v>
       </c>
       <c r="B207" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C207" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D207" s="1">
         <v>44581.804705092603</v>
@@ -7548,15 +7548,15 @@
         <v>44.034979867348802</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>213</v>
       </c>
       <c r="B208" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C208" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D208" s="1">
         <v>44581.960348588</v>
@@ -7571,15 +7571,15 @@
         <v>41.998723799183303</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>214</v>
       </c>
       <c r="B209" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C209" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D209" s="1">
         <v>44581.960348588</v>
@@ -7594,15 +7594,15 @@
         <v>42.004954996657801</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>215</v>
       </c>
       <c r="B210" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C210" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D210" s="1">
         <v>44582.095307094904</v>
@@ -7617,15 +7617,15 @@
         <v>42.8710238004576</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>216</v>
       </c>
       <c r="B211" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C211" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D211" s="1">
         <v>44582.095307094904</v>
@@ -7640,15 +7640,15 @@
         <v>42.854682271373797</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>217</v>
       </c>
       <c r="B212" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C212" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D212" s="1">
         <v>44582.098711469902</v>
@@ -7663,15 +7663,15 @@
         <v>42.536861768500302</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>218</v>
       </c>
       <c r="B213" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C213" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D213" s="1">
         <v>44582.098711469902</v>
@@ -7686,27 +7686,27 @@
         <v>42.564322939183498</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>219</v>
       </c>
       <c r="B214" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C214" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D214" s="1">
         <v>44582.7804070602</v>
       </c>
       <c r="E214" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F214" s="1">
         <v>44582.7804070602</v>
       </c>
       <c r="G214" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H214">
         <v>-124.075060342678</v>
@@ -7715,27 +7715,27 @@
         <v>46.302406871760503</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>220</v>
       </c>
       <c r="B215" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C215" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D215" s="1">
         <v>44582.7804070602</v>
       </c>
       <c r="E215" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F215" s="1">
         <v>44582.7804070602</v>
       </c>
       <c r="G215" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H215">
         <v>-124.061799082319</v>
@@ -7744,15 +7744,15 @@
         <v>46.548294205966698</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>221</v>
       </c>
       <c r="B216" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C216" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D216" s="1">
         <v>44582.910543240701</v>
@@ -7767,15 +7767,15 @@
         <v>43.210666423748599</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>222</v>
       </c>
       <c r="B217" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C217" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D217" s="1">
         <v>44582.910543240701</v>
@@ -7790,15 +7790,15 @@
         <v>43.124708152061402</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C218" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D218" s="1">
         <v>44582.945626585701</v>
@@ -7813,15 +7813,15 @@
         <v>46.016831699487099</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C219" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D219" s="1">
         <v>44582.945626585701</v>
@@ -7836,15 +7836,15 @@
         <v>46.031310806296503</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>225</v>
       </c>
       <c r="B220" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C220" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D220" s="1">
         <v>44583.092962766197</v>
@@ -7859,15 +7859,15 @@
         <v>44.625613645223197</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C221" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D221" s="1">
         <v>44583.092962766197</v>
@@ -7882,15 +7882,15 @@
         <v>44.618197069450197</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C222" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D222" s="1">
         <v>44583.812518043997</v>
@@ -7905,15 +7905,15 @@
         <v>46.236663853067697</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C223" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D223" s="1">
         <v>44583.812518043997</v>
@@ -7928,15 +7928,15 @@
         <v>46.228865544168002</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C224" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D224" s="1">
         <v>44583.953629629599</v>
@@ -7951,15 +7951,15 @@
         <v>45.039160000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C225" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D225" s="1">
         <v>44583.953629629599</v>
@@ -7974,15 +7974,15 @@
         <v>45.034680000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C226" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D226" s="1">
         <v>44584.165018564803</v>
@@ -7997,15 +7997,15 @@
         <v>44.611725295803197</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C227" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D227" s="1">
         <v>44584.165018564803</v>
@@ -8020,15 +8020,15 @@
         <v>44.591244527493103</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>233</v>
       </c>
       <c r="B228" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C228" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D228" s="1">
         <v>44586.9103475347</v>
@@ -8043,15 +8043,15 @@
         <v>44.088529819902099</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>234</v>
       </c>
       <c r="B229" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C229" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D229" s="1">
         <v>44586.9103475347</v>
@@ -8066,15 +8066,15 @@
         <v>44.053867491918602</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C230" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D230" s="1">
         <v>44586.9694163889</v>
@@ -8089,15 +8089,15 @@
         <v>43.792846358704203</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C231" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D231" s="1">
         <v>44586.9694163889</v>
@@ -8112,15 +8112,15 @@
         <v>43.816476767409803</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>237</v>
       </c>
       <c r="B232" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C232" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D232" s="1">
         <v>44586.980529502303</v>
@@ -8135,15 +8135,15 @@
         <v>43.816474887036698</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C233" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D233" s="1">
         <v>44586.980529502303</v>
@@ -8158,15 +8158,15 @@
         <v>43.860187706480403</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C234" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D234" s="1">
         <v>44586.9962855208</v>
@@ -8181,15 +8181,15 @@
         <v>43.860219342677198</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>240</v>
       </c>
       <c r="B235" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C235" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D235" s="1">
         <v>44586.9962855208</v>
@@ -8204,15 +8204,15 @@
         <v>43.889525032350299</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>241</v>
       </c>
       <c r="B236" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C236" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D236" s="1">
         <v>44587.009499791697</v>
@@ -8227,15 +8227,15 @@
         <v>43.578938805256399</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>242</v>
       </c>
       <c r="B237" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C237" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D237" s="1">
         <v>44587.009499791697</v>
@@ -8250,15 +8250,15 @@
         <v>43.631549727571098</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>243</v>
       </c>
       <c r="B238" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C238" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D238" s="1">
         <v>44587.019159942101</v>
@@ -8273,15 +8273,15 @@
         <v>43.579356224145897</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>244</v>
       </c>
       <c r="B239" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C239" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D239" s="1">
         <v>44587.019159942101</v>
@@ -8296,15 +8296,15 @@
         <v>43.553790999396398</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>245</v>
       </c>
       <c r="B240" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C240" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D240" s="1">
         <v>44587.039346932899</v>
@@ -8319,15 +8319,15 @@
         <v>43.073681490296899</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>246</v>
       </c>
       <c r="B241" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C241" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D241" s="1">
         <v>44587.039346932899</v>
@@ -8342,15 +8342,15 @@
         <v>43.022722192054196</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>247</v>
       </c>
       <c r="B242" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C242" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D242" s="1">
         <v>44587.041302592603</v>
@@ -8365,15 +8365,15 @@
         <v>43.0009971917573</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>248</v>
       </c>
       <c r="B243" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C243" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D243" s="1">
         <v>44587.041302592603</v>
@@ -8388,15 +8388,15 @@
         <v>42.902563495099898</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>249</v>
       </c>
       <c r="B244" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C244" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D244" s="1">
         <v>44587.168012048598</v>
@@ -8411,15 +8411,15 @@
         <v>43.410224997711602</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>250</v>
       </c>
       <c r="B245" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C245" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D245" s="1">
         <v>44587.168012048598</v>
@@ -8434,15 +8434,15 @@
         <v>43.357226969039203</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>251</v>
       </c>
       <c r="B246" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C246" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D246" s="1">
         <v>44587.719319421303</v>
@@ -8457,15 +8457,15 @@
         <v>43.790295814581299</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>252</v>
       </c>
       <c r="B247" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C247" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D247" s="1">
         <v>44587.719319421303</v>
@@ -8480,15 +8480,15 @@
         <v>43.672217397985399</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>253</v>
       </c>
       <c r="B248" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C248" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D248" s="1">
         <v>44587.7253082639</v>
@@ -8503,15 +8503,15 @@
         <v>43.535499999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>254</v>
       </c>
       <c r="B249" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C249" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D249" s="1">
         <v>44587.7253082639</v>
@@ -8526,15 +8526,15 @@
         <v>43.438639999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>255</v>
       </c>
       <c r="B250" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C250" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D250" s="1">
         <v>44587.940866307901</v>
@@ -8549,15 +8549,15 @@
         <v>46.727483648227903</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>256</v>
       </c>
       <c r="B251" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C251" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D251" s="1">
         <v>44587.940866307901</v>
@@ -8572,15 +8572,15 @@
         <v>46.705430991447201</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>257</v>
       </c>
       <c r="B252" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C252" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D252" s="1">
         <v>44588.7756687847</v>
@@ -8595,15 +8595,15 @@
         <v>46.841184479701901</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>258</v>
       </c>
       <c r="B253" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C253" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D253" s="1">
         <v>44588.7756687847</v>
@@ -8618,15 +8618,15 @@
         <v>46.744161691606401</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>259</v>
       </c>
       <c r="B254" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C254" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D254" s="1">
         <v>44588.778698761598</v>
@@ -8641,15 +8641,15 @@
         <v>47.139867168129399</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>260</v>
       </c>
       <c r="B255" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C255" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D255" s="1">
         <v>44588.778698761598</v>
@@ -8664,15 +8664,15 @@
         <v>47.070333696147898</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>261</v>
       </c>
       <c r="B256" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C256" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D256" s="1">
         <v>44588.780964213001</v>
@@ -8687,15 +8687,15 @@
         <v>47.070261096622701</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>262</v>
       </c>
       <c r="B257" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C257" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D257" s="1">
         <v>44588.780964213001</v>
@@ -8710,15 +8710,15 @@
         <v>46.967784376104802</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>263</v>
       </c>
       <c r="B258" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C258" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D258" s="1">
         <v>44588.782780868103</v>
@@ -8733,15 +8733,15 @@
         <v>47.121348295116697</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>264</v>
       </c>
       <c r="B259" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C259" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D259" s="1">
         <v>44588.782780868103</v>
@@ -8756,15 +8756,15 @@
         <v>47.139941634338001</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>265</v>
       </c>
       <c r="B260" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C260" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D260" s="1">
         <v>44592.729522152797</v>
@@ -8779,15 +8779,15 @@
         <v>46.150072068820798</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>266</v>
       </c>
       <c r="B261" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C261" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D261" s="1">
         <v>44592.729522152797</v>
@@ -8802,15 +8802,15 @@
         <v>46.113669999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>267</v>
       </c>
       <c r="B262" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C262" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D262" s="1">
         <v>44593.809285254603</v>
@@ -8825,15 +8825,15 @@
         <v>42.7976477136855</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>268</v>
       </c>
       <c r="B263" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C263" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D263" s="1">
         <v>44593.809285254603</v>
@@ -8848,15 +8848,15 @@
         <v>42.828128490866</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>269</v>
       </c>
       <c r="B264" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C264" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D264" s="1">
         <v>44593.990472511599</v>
@@ -8871,15 +8871,15 @@
         <v>44.651850000000003</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>270</v>
       </c>
       <c r="B265" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C265" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D265" s="1">
         <v>44593.990472511599</v>
@@ -8894,15 +8894,15 @@
         <v>44.671300000000002</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>271</v>
       </c>
       <c r="B266" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C266" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D266" s="1">
         <v>44593.992411759296</v>
@@ -8917,15 +8917,15 @@
         <v>45.191949610170603</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>272</v>
       </c>
       <c r="B267" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C267" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D267" s="1">
         <v>44593.992411759296</v>
@@ -8940,15 +8940,15 @@
         <v>45.162494595390299</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>273</v>
       </c>
       <c r="B268" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C268" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D268" s="1">
         <v>44594.032717754599</v>
@@ -8963,15 +8963,15 @@
         <v>46.548409999999997</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C269" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D269" s="1">
         <v>44594.032717754599</v>
@@ -8986,15 +8986,15 @@
         <v>46.662770000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>275</v>
       </c>
       <c r="B270" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C270" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D270" s="1">
         <v>44595.011429629601</v>
@@ -9009,15 +9009,15 @@
         <v>45.281361395256802</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>276</v>
       </c>
       <c r="B271" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C271" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D271" s="1">
         <v>44595.011429629601</v>
@@ -9032,15 +9032,15 @@
         <v>45.298455056328699</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>277</v>
       </c>
       <c r="B272" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C272" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D272" s="1">
         <v>44595.017799594898</v>
@@ -9055,15 +9055,15 @@
         <v>45.266653674435197</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>278</v>
       </c>
       <c r="B273" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C273" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D273" s="1">
         <v>44595.017799594898</v>
